--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3037377.145593245</v>
+        <v>3141556.780044316</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>215.2796551677707</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>292.9594311738724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>62.33289319369458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>18.41833046690936</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>327.6865394028641</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>303.425554639956</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>102.0933563356317</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>203.51330856508</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>183.5103896297346</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>92.72329049755638</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.53294783272894</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>100.3128717774558</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.594095449515069</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.00502760852106</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>8.579726596858459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>141.5502843483916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.6328115793024</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.5908209162933</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>20.22544352993065</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>102.1557845699813</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>111.6910841413366</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>91.40260836685064</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>178.2798710842943</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>109.8058856274582</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,16 +3088,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>59.00369384633056</v>
+        <v>177.100668059488</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833902</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>187.1118995475103</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,16 +3562,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>204.1034810317286</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>243.8738921652615</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.9089888172657</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>151.0997254264188</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1378.32407135043</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>992.5358187521861</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>581.5499139625786</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2382.355900829572</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,52 +4464,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>541.9536817013565</v>
+        <v>649.4080837454732</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0174987734496</v>
+        <v>480.4719008175663</v>
       </c>
       <c r="D4" t="n">
-        <v>373.0174987734496</v>
+        <v>330.3552614052305</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>182.4421678228374</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>182.4421678228374</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
         <v>831.0565485757129</v>
@@ -4519,19 +4521,19 @@
         <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9536817013565</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V4" t="n">
-        <v>541.9536817013565</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W4" t="n">
-        <v>541.9536817013565</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X4" t="n">
-        <v>541.9536817013565</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.9536817013565</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875904</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.107070935492</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1081.572080845302</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1081.572080845302</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>670.586176055695</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4640,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>2933.064049212986</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>2933.064049212986</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>2933.064049212986</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>2785.150955630593</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>2785.150955630593</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>2617.448119005312</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S7" t="n">
-        <v>729.201121645011</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T7" t="n">
-        <v>729.201121645011</v>
+        <v>3222.481219249947</v>
       </c>
       <c r="U7" t="n">
-        <v>729.201121645011</v>
+        <v>3222.481219249947</v>
       </c>
       <c r="V7" t="n">
-        <v>523.6321230944251</v>
+        <v>3222.481219249947</v>
       </c>
       <c r="W7" t="n">
-        <v>234.2149530574645</v>
+        <v>2933.064049212986</v>
       </c>
       <c r="X7" t="n">
-        <v>234.2149530574645</v>
+        <v>2933.064049212986</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.2149530574645</v>
+        <v>2933.064049212986</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796256</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796256</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,7 +4816,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2161.568951662578</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025388</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>538.0445312939976</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>538.0445312939976</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V10" t="n">
-        <v>538.0445312939976</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W10" t="n">
-        <v>538.0445312939976</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.3003822472216</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.3003822472216</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,10 +5059,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961267</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>486.4214942667328</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2371.250989330786</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2151.649524353727</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1862.574297697925</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1318.472639455077</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1090.48308855706</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y16" t="n">
-        <v>869.6905094135296</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>3023.484406741619</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>3023.484406741619</v>
       </c>
       <c r="D19" t="n">
-        <v>633.992644467967</v>
+        <v>3023.484406741619</v>
       </c>
       <c r="E19" t="n">
-        <v>486.0795508855739</v>
+        <v>2875.571313159226</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661315</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>2561.485266376195</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218393</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866307</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296631</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.61201282217</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.01060699811</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729145</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389153</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098138</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671697</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650998</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>4404.18598367394</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>4115.110757018138</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>3860.426268812251</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>3571.00909877529</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>3425.925450715389</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>3205.132871571859</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138415</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859347</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D22" t="n">
-        <v>747.3584617859347</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E22" t="n">
-        <v>599.4453682035415</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F22" t="n">
-        <v>452.5554207056311</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>3657.141693527828</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>3429.152142629811</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>3208.359563486281</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5968,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>94.56320294380271</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>691.195150674524</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,37 +6241,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>733.4550657171301</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>583.3384263047943</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>435.4253327224012</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>435.4253327224012</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>268.2292334372812</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2418.621364762388</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>2913.946970978147</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>3511.325458604699</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>4138.923422159306</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>4551.460220646409</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>4551.460220646409</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V34" t="n">
-        <v>3872.65623191917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>3583.239061882209</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3355.249510984192</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3355.249510984192</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>955.2822768769995</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153952</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
         <v>2337.686731866304</v>
@@ -7357,25 +7359,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T40" t="n">
-        <v>4234.767481950618</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U40" t="n">
-        <v>3945.692255294816</v>
+        <v>4434.982778844407</v>
       </c>
       <c r="V40" t="n">
-        <v>3691.00776708893</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="W40" t="n">
-        <v>3401.590597051969</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X40" t="n">
-        <v>3173.601046153952</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y40" t="n">
-        <v>3173.601046153952</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3192.420589669523</v>
+        <v>3028.451182298828</v>
       </c>
       <c r="C43" t="n">
-        <v>3023.484406741616</v>
+        <v>2859.514999370921</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>2709.398359958586</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G43" t="n">
         <v>2561.485266376193</v>
@@ -7594,25 +7596,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673937</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018135</v>
+        <v>3974.993884515446</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812248</v>
+        <v>3720.309396309559</v>
       </c>
       <c r="W43" t="n">
-        <v>3594.861633643293</v>
+        <v>3430.892226272598</v>
       </c>
       <c r="X43" t="n">
-        <v>3594.861633643293</v>
+        <v>3430.892226272598</v>
       </c>
       <c r="Y43" t="n">
-        <v>3374.069054499763</v>
+        <v>3210.099647129068</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7637,22 +7639,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,22 +7666,22 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2111.482263955954</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1822.407037300152</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1567.722549094265</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
   </sheetData>
@@ -23422,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>143.8269525734162</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.8269525734162</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>172.4465594047861</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.870763674539631</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.07684380973478</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>31.93331737597555</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>266.2975548066603</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>43.26526345294991</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>140.4465591824915</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>48.89210447937324</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>73.85777223953374</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>43.04708356698168</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>193.1339494774975</v>
+        <v>75.03697526433996</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823015</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>38.59775584152683</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>13.30196929555964</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>42.31058222398266</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>23.61400951932535</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>66.30572490086948</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>720281.9859240386</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="15">
@@ -26317,40 +26319,40 @@
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287557</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186726</v>
       </c>
       <c r="G4" t="n">
+        <v>14826.69604186727</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186737</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="N4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186743</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26481,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26502,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617905</v>
+        <v>-811863.8817617906</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658023</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658024</v>
+        <v>516880.8639658025</v>
       </c>
       <c r="E6" t="n">
-        <v>264891.5870556251</v>
+        <v>264891.5870556253</v>
       </c>
       <c r="F6" t="n">
+        <v>590304.0488629807</v>
+      </c>
+      <c r="G6" t="n">
+        <v>590304.0488629811</v>
+      </c>
+      <c r="H6" t="n">
+        <v>590304.0488629811</v>
+      </c>
+      <c r="I6" t="n">
         <v>590304.0488629809</v>
       </c>
-      <c r="G6" t="n">
-        <v>590304.048862981</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>372772.8464657034</v>
+      </c>
+      <c r="K6" t="n">
+        <v>590304.0488629811</v>
+      </c>
+      <c r="L6" t="n">
         <v>590304.0488629809</v>
       </c>
-      <c r="I6" t="n">
-        <v>590304.048862981</v>
-      </c>
-      <c r="J6" t="n">
-        <v>372772.8464657035</v>
-      </c>
-      <c r="K6" t="n">
-        <v>590304.0488629809</v>
-      </c>
-      <c r="L6" t="n">
-        <v>590304.0488629808</v>
-      </c>
       <c r="M6" t="n">
-        <v>505249.0209274692</v>
+        <v>505249.020927469</v>
       </c>
       <c r="N6" t="n">
-        <v>590304.0488629809</v>
+        <v>590304.0488629811</v>
       </c>
       <c r="O6" t="n">
-        <v>590304.048862981</v>
+        <v>590304.0488629807</v>
       </c>
       <c r="P6" t="n">
-        <v>590304.0488629813</v>
+        <v>590304.0488629817</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>195.6420704856827</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>56.28153754354065</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.10106945287458</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>147.6074777921189</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>26.99650221781883</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>107.4961710134975</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>117.4555929405375</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>48.62433475874798</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>199.223452033746</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>289.2070795747054</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.88810019020231</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>119.2360774987134</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-7.484429307644118e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31840,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>660.0558748011972</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>399.0581126127089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32077,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>324.5433647340724</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,28 +32320,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>398.1179220955522</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32548,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>276.9646925441598</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>518.4394551593568</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>100.2764607028594</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975234</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>461.1007071927443</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551086</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352321</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302367</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>620.0899880277076</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>200.4500263280939</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>531.8166820790238</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>517.9218408791788</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>265.0837051983787</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>182.4093308120541</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>259.563542315678</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>150.1270658774932</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373385</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>416.6233618831932</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>318.5044627482999</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318074956</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>314.9434509778017</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132138</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579233</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>481.5356082478334</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>66.47561891376371</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>393.2623022991496</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3137544.170030323</v>
+        <v>3139304.70033311</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78.78083674902027</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.0221052551881</v>
+        <v>105.0221052551877</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>114.1418776004529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>122.8356027921138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6650819731268</v>
+        <v>242.8528437613028</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>54.45803047044397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7029035467944</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>232.6961289392736</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951069</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.268486125805721</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2193560244681</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>41.55695577161152</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>3.814130455270303</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.0963079021241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517625</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4333,16 +4333,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064548</v>
@@ -4409,28 +4409,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4549,7 +4549,7 @@
         <v>1398.916003345276</v>
       </c>
       <c r="D5" t="n">
-        <v>1040.650304738526</v>
+        <v>1040.650304738525</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4573,7 +4573,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4582,34 +4582,34 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261499</v>
       </c>
       <c r="Y5" t="n">
         <v>1767.878520285688</v>
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.4459618444147</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C7" t="n">
-        <v>349.5097789165078</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218339</v>
@@ -4758,19 +4758,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746544</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835251</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894839</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288089</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898447</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002372</v>
+        <v>651.3985183731422</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875185</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899373</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4895,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.4564109463973</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5202280184904</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218339</v>
@@ -5004,10 +5004,10 @@
         <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201672</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766371</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.927936255316</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.368980229086</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5764010855557</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,58 +5503,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556308</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
         <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>444.0993955623734</v>
       </c>
       <c r="G22" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="23">
@@ -5983,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991042</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6423,13 +6423,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.894412370891</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>634.927936255316</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>816.5764010855557</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C40" t="n">
         <v>407.9027098310023</v>
@@ -7323,61 +7323,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7797,10 +7797,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>53.48834544997058</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>144.1654765207635</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40.30478226780073</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>39.70888054695401</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194223</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>282.7088678813207</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.48834544997069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>138.4949402405063</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="14">
@@ -26316,22 +26316,22 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
@@ -26340,19 +26340,19 @@
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287555</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26435,7 +26435,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617901</v>
+        <v>-811863.8817617903</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.863965802</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658024</v>
+        <v>516880.8639658025</v>
       </c>
       <c r="E6" t="n">
-        <v>264544.2078012685</v>
+        <v>264856.84913019</v>
       </c>
       <c r="F6" t="n">
-        <v>589956.669608624</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="G6" t="n">
-        <v>589956.6696086241</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="H6" t="n">
-        <v>589956.6696086238</v>
+        <v>590269.3109375453</v>
       </c>
       <c r="I6" t="n">
-        <v>589956.6696086241</v>
+        <v>590269.3109375453</v>
       </c>
       <c r="J6" t="n">
-        <v>372425.4672113467</v>
+        <v>372738.108540268</v>
       </c>
       <c r="K6" t="n">
-        <v>589956.6696086243</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="L6" t="n">
-        <v>589956.6696086241</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="M6" t="n">
-        <v>504901.6416731121</v>
+        <v>505214.2830020336</v>
       </c>
       <c r="N6" t="n">
-        <v>589956.6696086242</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="O6" t="n">
-        <v>589956.6696086241</v>
+        <v>590269.310937545</v>
       </c>
       <c r="P6" t="n">
-        <v>589956.6696086241</v>
+        <v>590269.3109375458</v>
       </c>
     </row>
   </sheetData>
@@ -26792,25 +26792,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>270.4601319683927</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>276.9082648170737</v>
+        <v>276.9082648170741</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>34.47359541775941</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>163.3762354134991</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.2566436803266</v>
+        <v>168.0688818921506</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.1574425477684</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.88174980530036</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31612,13 +31612,13 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002926</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817571</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35260,13 +35260,13 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
